--- a/00_Admin/Aenderungsantrag.xlsx
+++ b/00_Admin/Aenderungsantrag.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Semesterplan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Semesterplan!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Semesterplan!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>KW</t>
   </si>
@@ -83,6 +83,87 @@
   </si>
   <si>
     <t>IuK_I_J</t>
+  </si>
+  <si>
+    <t>Dozierende</t>
+  </si>
+  <si>
+    <t>Studierende</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Barra</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Bontognali</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>Crameri</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Dudler</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Gnägi</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Panzer</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Schneller</t>
+  </si>
+  <si>
+    <t>Remo</t>
+  </si>
+  <si>
+    <t>Wilhelm</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Hauser</t>
+  </si>
+  <si>
+    <t>Ulrich</t>
+  </si>
+  <si>
+    <t>Studer</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Wenk</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Berger</t>
   </si>
 </sst>
 </file>
@@ -471,17 +552,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="6" width="17" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
@@ -875,150 +960,215 @@
       <c r="F16" s="1"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -1028,8 +1178,8 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -1040,105 +1190,111 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="8"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="8"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="7"/>
       <c r="G43" s="8"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -1146,7 +1302,7 @@
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1156,25 +1312,25 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -1183,7 +1339,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
-      <c r="B55" s="11"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -1193,15 +1349,15 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -1209,39 +1365,39 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="7"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -1249,7 +1405,7 @@
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -1268,7 +1424,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -1304,7 +1460,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -1313,7 +1469,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" s="11"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
@@ -1322,7 +1478,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="11"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -1331,13 +1487,40 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
     </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
